--- a/input/currency_exchange_rate(ALL).xlsx
+++ b/input/currency_exchange_rate(ALL).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\chiisen\coin_size\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF488DB-B19E-47AC-9DC2-7CBA1700F4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91777E64-59FF-40FA-9224-8FF3962EEEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="435" yWindow="675" windowWidth="26055" windowHeight="13500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="currency_exchange_rate" sheetId="1" r:id="rId1"/>
@@ -790,7 +790,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
